--- a/dictionary_of_goods.xlsx
+++ b/dictionary_of_goods.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,27 +42,15 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>Закончил</t>
-  </si>
-  <si>
     <t>HQAP</t>
   </si>
   <si>
     <t>Expelled</t>
   </si>
   <si>
-    <t>Отчислен на курсе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Качественная успеваемость </t>
-  </si>
-  <si>
     <t>FQW</t>
   </si>
   <si>
-    <t>ВКР</t>
-  </si>
-  <si>
     <t>Нет пересдачи за семестр</t>
   </si>
   <si>
@@ -79,12 +67,24 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>Закончил бакалавриат/магистратуру</t>
+  </si>
+  <si>
+    <t>Качественная успеваемость за семестр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Защита выпускной работы на </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отчислен на с семестра </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -408,10 +410,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -443,47 +445,47 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
